--- a/Sprint3/Documento de Layout - Importação/Documento de Layout - Importacao.xlsx
+++ b/Sprint3/Documento de Layout - Importação/Documento de Layout - Importacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupovr-my.sharepoint.com/personal/raul_souza_vr_com_br/Documents/Área de Trabalho/Raul SPTECH/Terceiro Semestre/MOCA/Documentos/Sprint3/Documento de Layout - Importação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="8_{540236B4-9426-4363-BBEB-F6F3F9F55855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6520BCE-B027-49EC-B1CA-D46F364B0757}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="8_{540236B4-9426-4363-BBEB-F6F3F9F55855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B40B21B-FD6F-4C70-AF68-7F9879C87F0A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{418D223B-634F-4C7F-A64B-8FFE4F7064FA}"/>
   </bookViews>
@@ -149,18 +149,12 @@
     <t>Tamanho dos dados úteis: 36</t>
   </si>
   <si>
-    <t>Tamanho  dos dados úteis: 12</t>
-  </si>
-  <si>
     <t>003-009</t>
   </si>
   <si>
     <t>Arquivo de extratos: "EXTRATO"</t>
   </si>
   <si>
-    <t>003-012</t>
-  </si>
-  <si>
     <t>010-015</t>
   </si>
   <si>
@@ -192,6 +186,12 @@
   </si>
   <si>
     <t>Tamanho  dos dados úteis: 125</t>
+  </si>
+  <si>
+    <t>003-007</t>
+  </si>
+  <si>
+    <t>Tamanho  dos dados úteis: 7</t>
   </si>
 </sst>
 </file>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D60C55B-5D04-4DE3-AB64-0FAEF144223D}">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +823,7 @@
         <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -916,13 +916,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="10">
         <v>2</v>
@@ -931,10 +931,10 @@
         <v>33</v>
       </c>
       <c r="K7" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>16</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -974,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>14</v>
@@ -994,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>14</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>22</v>
@@ -1074,12 +1074,12 @@
         <v>14</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>23</v>
@@ -1088,18 +1088,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
@@ -1108,18 +1108,18 @@
         <v>50</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>24</v>
@@ -1128,7 +1128,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>14</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="21" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>25</v>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>26</v>
